--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Supply Chain\Gestão\Reportes\Relatório Mensal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C549F4E-7051-4B7C-87ED-30F2721AEB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F6587-866A-4BE8-9FA1-053B6573BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19CE77E3-4AC1-43FA-889F-0CF0F915B873}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{19CE77E3-4AC1-43FA-889F-0CF0F915B873}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +602,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>44928</v>
+        <v>44927</v>
       </c>
       <c r="B2" s="3">
         <v>1286.3499999999999</v>
@@ -2176,7 +2176,7 @@
         <v>620.82000000000005</v>
       </c>
       <c r="H33" s="3">
-        <v>2809</v>
+        <v>2775</v>
       </c>
       <c r="I33" s="3">
         <v>4015</v>
